--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2092282.01507758</v>
+        <v>2201423.268637707</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12134429.06144739</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9686478.866436128</v>
+        <v>9708925.74191815</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>412.2877386950442</v>
       </c>
       <c r="H2" t="n">
-        <v>98.67565404890236</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>3.160006812879547</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.3157839734244</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>96.65565115906504</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>33.85559031833759</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838588</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>150.2028876639206</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>116.4834600519701</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>108.0934329634203</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>99.04962701197744</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>288.0417862838281</v>
+        <v>92.29643158778872</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394024</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>28.39288662858455</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>53.21778227701368</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>27.93741639686039</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.52502338186934</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>143.6682042974526</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394024</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>166.8084805883471</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>146.6181265700667</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>119.2889395926984</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,10 +1776,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>32.57570591153918</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>176.7621441121407</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>214.2890123109838</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>161.355549430153</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289879</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>42.53134576113725</v>
       </c>
       <c r="E34" t="n">
-        <v>31.66396365647125</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>114.6820364666635</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>46.35517081455656</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>132.6315337216687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>251.2117044543522</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3910,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>125.2851635392055</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3946,10 +3948,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3958,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>151.8518831495024</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4037,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4141,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
-        <v>38.61213096654769</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1798.734238163263</v>
+        <v>1552.410237464062</v>
       </c>
       <c r="C2" t="n">
-        <v>1429.771721222852</v>
+        <v>1552.410237464062</v>
       </c>
       <c r="D2" t="n">
-        <v>1429.771721222852</v>
+        <v>1194.144538857311</v>
       </c>
       <c r="E2" t="n">
-        <v>1043.983468624607</v>
+        <v>1194.144538857311</v>
       </c>
       <c r="F2" t="n">
-        <v>632.9975638349999</v>
+        <v>783.1586340677038</v>
       </c>
       <c r="G2" t="n">
-        <v>217.2928135592888</v>
+        <v>366.7063727595784</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>54.99178139643544</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>293.3053724073749</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>455.1003844723683</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>692.7231656905578</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1121.983124168531</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1763.006333788425</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2038.122553105057</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2238.426880394158</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2550.866182466517</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2448.259651016316</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2236.241780077747</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2236.241780077747</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1905.178892734176</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1552.410237464062</v>
       </c>
       <c r="X2" t="n">
-        <v>2188.873570139075</v>
+        <v>1552.410237464062</v>
       </c>
       <c r="Y2" t="n">
-        <v>1798.734238163263</v>
+        <v>1552.410237464062</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>626.5027693669854</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>467.2653143615298</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>320.7307563884149</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>183.629392168681</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>85.99742130093851</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>77.11538214994989</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>198.5384744202275</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>408.1293476730567</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1049.152557292951</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1690.175766912845</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2318.904414748264</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2524.714615879287</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1533.717344299918</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>455.9574707874393</v>
+        <v>838.8076322017463</v>
       </c>
       <c r="C4" t="n">
-        <v>455.9574707874393</v>
+        <v>669.8714492738394</v>
       </c>
       <c r="D4" t="n">
-        <v>305.8408313751036</v>
+        <v>519.7548098615036</v>
       </c>
       <c r="E4" t="n">
-        <v>305.8408313751036</v>
+        <v>371.8417162791106</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>371.8417162791106</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>203.5199438722345</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>54.03452733018365</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>187.5436166159861</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>413.9157199341293</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>662.9824862666686</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>911.5616180092685</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1125.148384357423</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1284.388078993466</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1311.202309361116</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1193.54224870256</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1193.54224870256</v>
       </c>
       <c r="T4" t="n">
-        <v>1228.048679928304</v>
+        <v>1193.54224870256</v>
       </c>
       <c r="U4" t="n">
-        <v>1228.048679928304</v>
+        <v>1193.54224870256</v>
       </c>
       <c r="V4" t="n">
-        <v>973.3641917224172</v>
+        <v>938.857760496673</v>
       </c>
       <c r="W4" t="n">
-        <v>683.9470216854567</v>
+        <v>938.857760496673</v>
       </c>
       <c r="X4" t="n">
-        <v>455.9574707874393</v>
+        <v>938.857760496673</v>
       </c>
       <c r="Y4" t="n">
-        <v>455.9574707874393</v>
+        <v>838.8076322017463</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1302.576789404184</v>
+        <v>1633.218371450951</v>
       </c>
       <c r="C5" t="n">
-        <v>1302.576789404184</v>
+        <v>1264.25585451054</v>
       </c>
       <c r="D5" t="n">
-        <v>944.3110907974335</v>
+        <v>1264.25585451054</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>878.4676019122953</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>467.4816971226878</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>447.8319447135513</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2465.815585560732</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2465.815585560732</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.59368700598</v>
+        <v>2465.815585560732</v>
       </c>
       <c r="V5" t="n">
-        <v>2062.642387729386</v>
+        <v>2372.586866785187</v>
       </c>
       <c r="W5" t="n">
-        <v>2062.642387729386</v>
+        <v>2019.818211515073</v>
       </c>
       <c r="X5" t="n">
-        <v>1689.176629468306</v>
+        <v>2019.818211515073</v>
       </c>
       <c r="Y5" t="n">
-        <v>1689.176629468306</v>
+        <v>2019.818211515073</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>301.946747225829</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>599.2586963421438</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341571</v>
+        <v>965.5645858344694</v>
       </c>
       <c r="N6" t="n">
-        <v>1861.38035112061</v>
+        <v>1355.974147160212</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1690.902827875743</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2237.235965858065</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>228.6653681677136</v>
+        <v>1048.564286943275</v>
       </c>
       <c r="C7" t="n">
-        <v>228.6653681677136</v>
+        <v>1048.564286943275</v>
       </c>
       <c r="D7" t="n">
-        <v>228.6653681677136</v>
+        <v>1048.564286943275</v>
       </c>
       <c r="E7" t="n">
-        <v>228.6653681677136</v>
+        <v>1048.564286943275</v>
       </c>
       <c r="F7" t="n">
-        <v>228.6653681677136</v>
+        <v>1048.564286943275</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>1048.564286943275</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>1048.564286943275</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>994.808951309928</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>1020.990176667914</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>1193.850809199306</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>1470.579339609653</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>1772.739897818851</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>2073.150369737742</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>2334.611767884208</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>2534.816480621919</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>2487.871403898013</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>2291.421737903981</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>2291.421737903981</v>
       </c>
       <c r="U7" t="n">
-        <v>927.7205539329314</v>
+        <v>2002.30396091438</v>
       </c>
       <c r="V7" t="n">
-        <v>927.7205539329314</v>
+        <v>1747.619472708493</v>
       </c>
       <c r="W7" t="n">
-        <v>638.3033838959707</v>
+        <v>1458.202302671532</v>
       </c>
       <c r="X7" t="n">
-        <v>410.3138329979533</v>
+        <v>1230.212751773515</v>
       </c>
       <c r="Y7" t="n">
-        <v>410.3138329979533</v>
+        <v>1230.212751773515</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>906.1570541554031</v>
+        <v>1294.668437559719</v>
       </c>
       <c r="C8" t="n">
-        <v>877.9374416333219</v>
+        <v>925.7059206193069</v>
       </c>
       <c r="D8" t="n">
-        <v>877.9374416333219</v>
+        <v>925.7059206193069</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>539.9176680210627</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>128.9317632314551</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>447.8319447135513</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>804.613300747739</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1233.270741187504</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1673.478115539973</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2075.818195082063</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.530799662409</v>
+        <v>2444.873367860732</v>
       </c>
       <c r="W8" t="n">
-        <v>1669.762144392295</v>
+        <v>2444.873367860732</v>
       </c>
       <c r="X8" t="n">
-        <v>1296.296386131215</v>
+        <v>2071.407609599652</v>
       </c>
       <c r="Y8" t="n">
-        <v>906.1570541554031</v>
+        <v>1681.26827762384</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>563.7673318682819</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>861.0792809845967</v>
       </c>
       <c r="M9" t="n">
-        <v>1178.376567084329</v>
+        <v>1227.385170476922</v>
       </c>
       <c r="N9" t="n">
-        <v>1565.661695681274</v>
+        <v>1617.794731802665</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1987.759237993046</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2237.235965858065</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.2996089082458</v>
+        <v>604.0232446048699</v>
       </c>
       <c r="C10" t="n">
-        <v>201.3634259803388</v>
+        <v>604.0232446048699</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>453.9066051925341</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>305.993511610141</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>305.993511610141</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>305.993511610141</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>77.98108068080556</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>250.8417132121974</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>527.5702436225447</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>829.7308018317426</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1391.6026718971</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153879</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1646.983670153879</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1450.534004159848</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1227.599429701829</v>
       </c>
       <c r="U10" t="n">
-        <v>1310.884232784815</v>
+        <v>1227.599429701829</v>
       </c>
       <c r="V10" t="n">
-        <v>1056.199744578928</v>
+        <v>972.9149414959421</v>
       </c>
       <c r="W10" t="n">
-        <v>766.7825745419673</v>
+        <v>824.8158237484</v>
       </c>
       <c r="X10" t="n">
-        <v>538.7930236439499</v>
+        <v>824.8158237484</v>
       </c>
       <c r="Y10" t="n">
-        <v>538.7930236439499</v>
+        <v>604.0232446048699</v>
       </c>
     </row>
     <row r="11">
@@ -5027,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,10 +5056,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,25 +5123,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="14">
@@ -5264,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,10 +5290,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,22 +5357,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5492,10 +5494,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,31 +5533,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>962.6357307816187</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.284195611858</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5744,13 +5746,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5762,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5835,16 +5837,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>948.5505208511906</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2230.509535791388</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1941.434309135586</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1686.749820929699</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1397.332650892738</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1169.343099994721</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>948.5505208511906</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,10 +6238,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>378.6527890600114</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>231.762841562101</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,22 +6782,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
-        <v>1802.364528928006</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2354.274259167293</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171301</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C34" t="n">
-        <v>564.5188827892232</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D34" t="n">
-        <v>414.4022433768874</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473698</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6968,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3045.530642171613</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>2876.594459243706</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>2876.594459243706</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.681365661313</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.947007775578</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.345542798519</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.270316142717</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>3744.58582793683</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>3455.16865789987</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>3227.179107001853</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y37" t="n">
-        <v>3227.179107001853</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7165,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.3556038098237</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C40" t="n">
-        <v>814.4194208819168</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D40" t="n">
-        <v>664.3027814695811</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>516.389687887188</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>369.4997403892776</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924458</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718571</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.786198681611</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X40" t="n">
-        <v>1385.796647783593</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y40" t="n">
-        <v>1165.004068640063</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="41">
@@ -7391,43 +7393,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>302.45403664168</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>302.45403664168</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W43" t="n">
-        <v>1280.315625093766</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.315625093766</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7685,10 +7687,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,19 +7724,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
         <v>2001.151557821488</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>724.7519863413023</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2407.960931088798</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2188.359466111739</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1899.284239455937</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1644.59975125005</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1355.182581213089</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1127.193030315072</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>906.400451171542</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7985,10 +7987,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>134.5347393135082</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>338.9374781659714</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -7997,10 +7999,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,19 +8063,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621885</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>380.8926041660695</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>359.2821607945085</v>
       </c>
       <c r="O3" t="n">
-        <v>162.0073097921333</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>33.81943452254023</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8301,22 +8303,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>6.454437538929881</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>299.8549597144476</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.18437503906574</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,28 +8534,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>224.3355197601773</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039157</v>
+        <v>35.38972270186878</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.18437503906574</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8939,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>-9.640568469461882e-13</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9890,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>-7.366831715029562e-13</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>60.54304058923888</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23941,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>109.4223302771034</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>3.116438016304414</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
     </row>
     <row r="26">
@@ -24601,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>117.6820817884491</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>28.95742156328097</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>106.0841272570751</v>
       </c>
       <c r="E34" t="n">
-        <v>114.7699989900979</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>66.34424953498107</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>179.3544845744806</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>34.97276993489191</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>15.00954930701842</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26029,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
-        <v>142.4141550350969</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>852405.0445469654</v>
+        <v>875217.4876982014</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>852405.0445469654</v>
+        <v>852211.2220023476</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>852405.0445469654</v>
+        <v>852211.2220023476</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>832814.7603673673</v>
+        <v>832814.7603673674</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>832814.7603673674</v>
+        <v>832814.7603673673</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>832814.7603673673</v>
+        <v>832814.7603673675</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>832814.7603673673</v>
+        <v>832814.7603673674</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>832814.7603673675</v>
+        <v>832814.7603673673</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>832814.7603673674</v>
+        <v>832814.7603673673</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>832814.7603673675</v>
+        <v>832814.7603673673</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>832814.7603673674</v>
+        <v>832814.7603673675</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>832814.7603673675</v>
+        <v>832814.7603673674</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>832814.7603673673</v>
+        <v>832814.7603673674</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516057</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="F2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="F2" t="n">
-        <v>585181.2847752543</v>
-      </c>
       <c r="G2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="J2" t="n">
         <v>585181.2847752545</v>
       </c>
       <c r="K2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="L2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="L2" t="n">
-        <v>585181.2847752548</v>
-      </c>
       <c r="M2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="N2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="O2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="N2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752542</v>
-      </c>
       <c r="P2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>939682.9358753948</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172764.3597898964</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>500888.8677457503</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130705.5901165056</v>
+        <v>159785.8388151605</v>
       </c>
       <c r="C4" t="n">
-        <v>130705.5901165056</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>130705.5901165056</v>
+        <v>129066.7547252478</v>
       </c>
       <c r="E4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695028</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
@@ -26439,7 +26441,7 @@
         <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695031</v>
       </c>
       <c r="K4" t="n">
         <v>6287.480531695051</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>89345.07489699083</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>93481.08936150963</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>93481.08936150963</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-743139.8629806648</v>
+        <v>-593558.566435941</v>
       </c>
       <c r="C6" t="n">
-        <v>371611.9205952552</v>
+        <v>199943.0792749519</v>
       </c>
       <c r="D6" t="n">
-        <v>371611.9205952551</v>
+        <v>372707.439064848</v>
       </c>
       <c r="E6" t="n">
-        <v>-29714.16720489343</v>
+        <v>-23117.59332609826</v>
       </c>
       <c r="F6" t="n">
+        <v>477771.2744196521</v>
+      </c>
+      <c r="G6" t="n">
         <v>477771.2744196522</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
+        <v>477771.2744196522</v>
+      </c>
+      <c r="I6" t="n">
+        <v>477771.2744196524</v>
+      </c>
+      <c r="J6" t="n">
+        <v>308357.2575936044</v>
+      </c>
+      <c r="K6" t="n">
+        <v>477771.2744196525</v>
+      </c>
+      <c r="L6" t="n">
         <v>477771.2744196521</v>
       </c>
-      <c r="H6" t="n">
-        <v>477771.2744196525</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
+        <v>346886.8175154169</v>
+      </c>
+      <c r="N6" t="n">
         <v>477771.2744196522</v>
       </c>
-      <c r="J6" t="n">
-        <v>310166.0966096699</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>477771.2744196522</v>
       </c>
-      <c r="L6" t="n">
-        <v>477771.2744196526</v>
-      </c>
-      <c r="M6" t="n">
-        <v>345163.9806907256</v>
-      </c>
-      <c r="N6" t="n">
-        <v>477771.2744196524</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>477771.2744196521</v>
-      </c>
-      <c r="P6" t="n">
-        <v>477771.2744196524</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>749.9809564976067</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>939.7063906498449</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>939.7063906498449</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,13 +26804,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>749.9809564976067</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>189.7254341522382</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>428.2691096918288</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>525.2100965644016</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>525.2100965644016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>525.2100965644016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>202.342898513503</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>91.08014074597264</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713016</v>
       </c>
       <c r="T4" t="n">
-        <v>112.6552630337917</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>119.5350263401174</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>39.71047218630684</v>
+        <v>235.4558268823462</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27786,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>137.9137134162197</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>51.27287723598742</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>337.3354753741472</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>184.0840541726823</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.02349959359017</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>139.9048717665243</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.014998820090879</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>30.87735666625572</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>116.2357420115537</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>255.8942561066885</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>383.5191561611355</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>475.7894263014918</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>529.4074115682829</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>537.9737769658663</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>507.9933824485875</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>433.5605990775938</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>325.5859538330891</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>189.3909196325338</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>68.70428561282097</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>13.19815733494783</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.2411999056072703</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>1.613166585674098</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>15.57979307743142</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>55.54104253307749</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>152.4088658859901</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>260.4910271261546</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>350.2623325605097</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>408.7396212911956</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>419.5577428240715</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>383.8133674257139</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>308.0440649433284</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>205.9192996028901</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>100.1578341526427</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>29.9638617996921</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>6.502193386993399</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1061293806364538</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.352424675651422</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>12.02428484351901</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>40.67109842777186</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>95.61642456855552</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>157.1271577711379</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>201.0686649600305</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>211.9987152932497</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>206.9578596840036</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>191.1590805184392</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>163.5696171351501</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>113.2471244311386</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>60.80993132519936</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>23.56907366567068</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>5.778541795965165</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.07376861867189582</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.777714133265706</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.68851486730742</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>320.6287649182605</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>480.5394041793979</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>596.1516230853283</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>663.3335468027923</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>674.0669770839336</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>636.5023321712727</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>543.2400145062754</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>237.3018354237521</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>86.08466081179235</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.53694361837064</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3022171306612564</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.52107049255622</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>512.1399829041654</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>525.6948043315581</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>385.9711022274807</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>258.0114603157839</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>15.06611229599261</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>265.6288080979553</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>239.5172944561278</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>76.19324275662511</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.240360714843065</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09243013678523075</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.777714133265706</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.68851486730742</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>320.6287649182605</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>480.5394041793979</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>596.1516230853283</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>663.3335468027923</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>674.0669770839336</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>636.5023321712727</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>543.2400145062754</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>237.3018354237521</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>86.08466081179235</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.53694361837064</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3022171306612564</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.52107049255622</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>512.1399829041654</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>525.6948043315581</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>385.9711022274807</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>258.0114603157839</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>15.06611229599261</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>265.6288080979553</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>239.5172944561278</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>76.19324275662511</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.240360714843065</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09243013678523075</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,28 +31843,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>359.7096985496635</v>
+        <v>510.8679233250717</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>622.4211036182644</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,34 +32557,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>616.5397119226052</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>436.4492970000073</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>533.6019216797995</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>297.7596336167232</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,19 +33970,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33995,7 +33997,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,19 +34207,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>446.0127311990643</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,13 +34228,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34457,7 +34459,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>616.9033572954396</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>243.9449667520759</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>163.4293051161549</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>240.0230113315046</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>433.5959176545184</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>277.8951710269007</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>202.3276033223243</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>315.5952546185443</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>39.52180169138416</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>25.57123921932339</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>122.6495881517956</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000387</v>
+        <v>211.7079527806355</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="O3" t="n">
-        <v>497.4319917882564</v>
+        <v>635.0794422579989</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>207.8890920515383</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>65.93752551686856</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>2.257244451882741</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>134.857665945255</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>228.6586902203466</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>251.5825922550902</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>251.0900320632322</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>215.7442084324789</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>160.8481764000436</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>27.08508117944423</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>139.5828603915742</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>360.3852081153411</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>432.9873135755196</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>444.6539134873427</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>406.4041207495859</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>312.0070187510059</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>21.71629760961994</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>64.12666919171363</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>370.0059489821471</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000387</v>
+        <v>394.3530922482248</v>
       </c>
       <c r="O6" t="n">
-        <v>341.8791195350528</v>
+        <v>338.3117987025569</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>551.851654527598</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>328.1069739656115</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>26.44568217978366</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>174.6066995266584</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>279.5237680912599</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>305.2126850597959</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>264.1024223701675</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>55.7336217364322</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>139.5828603915742</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>360.3852081153411</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>432.9873135755196</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>444.6539134873427</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>406.4041207495859</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>312.0070187510059</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>21.71629760961994</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>64.12666919171363</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>453.0121960057228</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>591.2668520422178</v>
+        <v>370.0059489821471</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>394.3530922482248</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000387</v>
+        <v>373.7015214044256</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>251.9966948131504</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>328.1069739656115</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>26.44568217978366</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>174.6066995266584</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>279.5237680912599</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>305.2126850597959</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>264.1024223701675</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>55.7336217364322</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35431,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>228.3679864663302</v>
+        <v>379.5262112417385</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>483.8667238383903</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>477.985332142731</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>302.474889585677</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>395.0475418999253</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>163.785226202393</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37616,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37643,7 +37645,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>303.8786972770459</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,13 +37876,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38105,7 +38107,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>485.5616452121063</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2201423.268637707</v>
+        <v>2197267.082329742</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>403.5577967645516</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950442</v>
+        <v>12.28773869504415</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.160006812879547</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734244</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906504</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833759</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041457</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>49.18288146242618</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639206</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519701</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.04962701197744</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>71.25708220532658</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>92.29643158778872</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -992,10 +992,10 @@
         <v>135.3222619078506</v>
       </c>
       <c r="H6" t="n">
-        <v>92.71437374394024</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555391</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>53.21778227701368</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>108.4980342304096</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186934</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767967</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>144.9542020112904</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>143.6682042974526</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3222619078506</v>
       </c>
       <c r="H9" t="n">
-        <v>92.71437374394024</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555391</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>146.6181265700667</v>
+        <v>78.05570941637252</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>119.2889395926984</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>120.7871326503973</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1852,13 +1852,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>176.7621441121407</v>
+        <v>73.23997380652447</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>244.6418937426531</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>136.5667167289879</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>42.53134576113725</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892427808</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>46.35517081455656</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>251.2117044543522</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>125.2851635392055</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>99.76859704213609</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1552.410237464062</v>
+        <v>925.3036175845675</v>
       </c>
       <c r="C2" t="n">
-        <v>1552.410237464062</v>
+        <v>925.3036175845675</v>
       </c>
       <c r="D2" t="n">
-        <v>1194.144538857311</v>
+        <v>567.0379189778171</v>
       </c>
       <c r="E2" t="n">
-        <v>1194.144538857311</v>
+        <v>567.0379189778171</v>
       </c>
       <c r="F2" t="n">
-        <v>783.1586340677038</v>
+        <v>159.4037808318053</v>
       </c>
       <c r="G2" t="n">
-        <v>366.7063727595784</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="H2" t="n">
-        <v>54.99178139643544</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
-        <v>51.79985532281974</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073749</v>
+        <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>455.1003844723683</v>
+        <v>287.6947354520187</v>
       </c>
       <c r="L2" t="n">
-        <v>692.7231656905578</v>
+        <v>730.2783389764048</v>
       </c>
       <c r="M2" t="n">
-        <v>1121.983124168531</v>
+        <v>1371.301548596299</v>
       </c>
       <c r="N2" t="n">
-        <v>1763.006333788425</v>
+        <v>2012.324758216193</v>
       </c>
       <c r="O2" t="n">
-        <v>2038.122553105057</v>
+        <v>2287.440977532827</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394158</v>
+        <v>2487.74530482193</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466517</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016316</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.241780077747</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2236.241780077747</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="V2" t="n">
-        <v>1905.178892734176</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="W2" t="n">
-        <v>1552.410237464062</v>
+        <v>1298.769375845647</v>
       </c>
       <c r="X2" t="n">
-        <v>1552.410237464062</v>
+        <v>925.3036175845675</v>
       </c>
       <c r="Y2" t="n">
-        <v>1552.410237464062</v>
+        <v>925.3036175845675</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669854</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615298</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884149</v>
+        <v>320.7307563884144</v>
       </c>
       <c r="G3" t="n">
-        <v>183.629392168681</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093851</v>
+        <v>85.99742130093836</v>
       </c>
       <c r="I3" t="n">
-        <v>51.79985532281974</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214994989</v>
+        <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>198.5384744202275</v>
+        <v>460.3590590626825</v>
       </c>
       <c r="L3" t="n">
-        <v>408.1293476730567</v>
+        <v>1037.081874165938</v>
       </c>
       <c r="M3" t="n">
-        <v>1049.152557292951</v>
+        <v>1678.105083785832</v>
       </c>
       <c r="N3" t="n">
-        <v>1690.175766912845</v>
+        <v>2113.580703174116</v>
       </c>
       <c r="O3" t="n">
-        <v>2318.904414748264</v>
+        <v>2352.385654925575</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879287</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
@@ -4442,7 +4442,7 @@
         <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4454,7 +4454,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>838.8076322017463</v>
+        <v>684.350106162791</v>
       </c>
       <c r="C4" t="n">
-        <v>669.8714492738394</v>
+        <v>684.350106162791</v>
       </c>
       <c r="D4" t="n">
-        <v>519.7548098615036</v>
+        <v>634.6704279179161</v>
       </c>
       <c r="E4" t="n">
-        <v>371.8417162791106</v>
+        <v>634.6704279179161</v>
       </c>
       <c r="F4" t="n">
-        <v>371.8417162791106</v>
+        <v>487.7804804200057</v>
       </c>
       <c r="G4" t="n">
-        <v>203.5199438722345</v>
+        <v>319.4587080131296</v>
       </c>
       <c r="H4" t="n">
-        <v>51.79985532281974</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="I4" t="n">
-        <v>51.79985532281974</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018365</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159861</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341293</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666686</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092685</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357423</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993466</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361116</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1193.54224870256</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1193.54224870256</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>1193.54224870256</v>
+        <v>1086.791150136561</v>
       </c>
       <c r="U4" t="n">
-        <v>1193.54224870256</v>
+        <v>1086.791150136561</v>
       </c>
       <c r="V4" t="n">
-        <v>938.857760496673</v>
+        <v>1086.791150136561</v>
       </c>
       <c r="W4" t="n">
-        <v>938.857760496673</v>
+        <v>1086.791150136561</v>
       </c>
       <c r="X4" t="n">
-        <v>938.857760496673</v>
+        <v>1086.791150136561</v>
       </c>
       <c r="Y4" t="n">
-        <v>838.8076322017463</v>
+        <v>865.9985709930307</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1633.218371450951</v>
+        <v>1319.75945534812</v>
       </c>
       <c r="C5" t="n">
-        <v>1264.25585451054</v>
+        <v>1319.75945534812</v>
       </c>
       <c r="D5" t="n">
-        <v>1264.25585451054</v>
+        <v>1319.75945534812</v>
       </c>
       <c r="E5" t="n">
-        <v>878.4676019122953</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="F5" t="n">
-        <v>467.4816971226878</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G5" t="n">
-        <v>51.79985532281974</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281974</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281974</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104779</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135513</v>
+        <v>447.8319447135509</v>
       </c>
       <c r="L5" t="n">
         <v>804.6133007477388</v>
@@ -4579,40 +4579,40 @@
         <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645558</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507463</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.815585560732</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.815585560732</v>
+        <v>2257.170226019557</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.815585560732</v>
+        <v>2003.590997961804</v>
       </c>
       <c r="V5" t="n">
-        <v>2372.586866785187</v>
+        <v>1672.528110618234</v>
       </c>
       <c r="W5" t="n">
-        <v>2019.818211515073</v>
+        <v>1319.75945534812</v>
       </c>
       <c r="X5" t="n">
-        <v>2019.818211515073</v>
+        <v>1319.75945534812</v>
       </c>
       <c r="Y5" t="n">
-        <v>2019.818211515073</v>
+        <v>1319.75945534812</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281974</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226162</v>
+        <v>240.1153828096208</v>
       </c>
       <c r="K6" t="n">
-        <v>301.946747225829</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L6" t="n">
-        <v>599.2586963421438</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M6" t="n">
-        <v>965.5645858344694</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N6" t="n">
-        <v>1355.974147160212</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O6" t="n">
-        <v>1690.902827875743</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858065</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1048.564286943275</v>
+        <v>1269.291254958036</v>
       </c>
       <c r="C7" t="n">
-        <v>1048.564286943275</v>
+        <v>1100.35507203013</v>
       </c>
       <c r="D7" t="n">
-        <v>1048.564286943275</v>
+        <v>1100.35507203013</v>
       </c>
       <c r="E7" t="n">
-        <v>1048.564286943275</v>
+        <v>1100.35507203013</v>
       </c>
       <c r="F7" t="n">
-        <v>1048.564286943275</v>
+        <v>1100.35507203013</v>
       </c>
       <c r="G7" t="n">
-        <v>1048.564286943275</v>
+        <v>1100.35507203013</v>
       </c>
       <c r="H7" t="n">
-        <v>1048.564286943275</v>
+        <v>1100.35507203013</v>
       </c>
       <c r="I7" t="n">
-        <v>994.808951309928</v>
+        <v>994.8089513099264</v>
       </c>
       <c r="J7" t="n">
-        <v>1020.990176667914</v>
+        <v>1020.990176667912</v>
       </c>
       <c r="K7" t="n">
-        <v>1193.850809199306</v>
+        <v>1193.850809199304</v>
       </c>
       <c r="L7" t="n">
-        <v>1470.579339609653</v>
+        <v>1470.579339609651</v>
       </c>
       <c r="M7" t="n">
-        <v>1772.739897818851</v>
+        <v>1772.739897818849</v>
       </c>
       <c r="N7" t="n">
-        <v>2073.150369737742</v>
+        <v>2073.15036973774</v>
       </c>
       <c r="O7" t="n">
-        <v>2334.611767884208</v>
+        <v>2334.611767884206</v>
       </c>
       <c r="P7" t="n">
-        <v>2534.816480621919</v>
+        <v>2534.816480621917</v>
       </c>
       <c r="Q7" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="R7" t="n">
-        <v>2487.871403898013</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S7" t="n">
-        <v>2291.421737903981</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="T7" t="n">
-        <v>2291.421737903981</v>
+        <v>2367.058191682966</v>
       </c>
       <c r="U7" t="n">
-        <v>2002.30396091438</v>
+        <v>2077.940414693365</v>
       </c>
       <c r="V7" t="n">
-        <v>1747.619472708493</v>
+        <v>2077.940414693365</v>
       </c>
       <c r="W7" t="n">
-        <v>1458.202302671532</v>
+        <v>1788.523244656404</v>
       </c>
       <c r="X7" t="n">
-        <v>1230.212751773515</v>
+        <v>1560.533693758387</v>
       </c>
       <c r="Y7" t="n">
-        <v>1230.212751773515</v>
+        <v>1450.939719788276</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1294.668437559719</v>
+        <v>2056.974540206873</v>
       </c>
       <c r="C8" t="n">
-        <v>925.7059206193069</v>
+        <v>1688.012023266461</v>
       </c>
       <c r="D8" t="n">
-        <v>925.7059206193069</v>
+        <v>1329.746324659711</v>
       </c>
       <c r="E8" t="n">
-        <v>539.9176680210627</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="F8" t="n">
-        <v>128.9317632314551</v>
+        <v>532.9721672718592</v>
       </c>
       <c r="G8" t="n">
-        <v>117.2903254719911</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719911</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281974</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
         <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135513</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L8" t="n">
-        <v>804.613300747739</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187504</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539973</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082063</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645558</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507463</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140987</v>
+        <v>2443.574380270995</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140987</v>
+        <v>2443.574380270995</v>
       </c>
       <c r="V8" t="n">
-        <v>2444.873367860732</v>
+        <v>2443.574380270995</v>
       </c>
       <c r="W8" t="n">
-        <v>2444.873367860732</v>
+        <v>2443.574380270995</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.407609599652</v>
+        <v>2443.574380270995</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.26827762384</v>
+        <v>2443.574380270995</v>
       </c>
     </row>
     <row r="9">
@@ -4868,40 +4868,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281974</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226162</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>563.7673318682819</v>
+        <v>688.5974568552863</v>
       </c>
       <c r="L9" t="n">
-        <v>861.0792809845967</v>
+        <v>985.909405971601</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.385170476922</v>
+        <v>1352.215295463926</v>
       </c>
       <c r="N9" t="n">
-        <v>1617.794731802665</v>
+        <v>1742.624856789669</v>
       </c>
       <c r="O9" t="n">
-        <v>1987.759237993046</v>
+        <v>2077.5535375052</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.235965858065</v>
+        <v>2327.030265370218</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>604.0232446048699</v>
+        <v>937.708924356462</v>
       </c>
       <c r="C10" t="n">
-        <v>604.0232446048699</v>
+        <v>768.7727414285552</v>
       </c>
       <c r="D10" t="n">
-        <v>453.9066051925341</v>
+        <v>768.7727414285552</v>
       </c>
       <c r="E10" t="n">
-        <v>305.993511610141</v>
+        <v>620.859647846162</v>
       </c>
       <c r="F10" t="n">
-        <v>305.993511610141</v>
+        <v>473.9697003482516</v>
       </c>
       <c r="G10" t="n">
         <v>305.993511610141</v>
@@ -4959,55 +4959,55 @@
         <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281974</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080556</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121974</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225447</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317426</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
-        <v>1391.6026718971</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
-        <v>1646.983670153879</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153879</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1450.534004159848</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1227.599429701829</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1227.599429701829</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>972.9149414959421</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W10" t="n">
-        <v>824.8158237484</v>
+        <v>1568.139519228249</v>
       </c>
       <c r="X10" t="n">
-        <v>824.8158237484</v>
+        <v>1340.149968330232</v>
       </c>
       <c r="Y10" t="n">
-        <v>604.0232446048699</v>
+        <v>1119.357389186702</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,10 +5056,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,25 +5260,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5287,16 +5287,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,31 +5533,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1655.562009178173</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2283.159972732779</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>2018.514925172274</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="20">
@@ -5743,16 +5743,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5761,40 +5761,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969303</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6080,16 +6080,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1730.34805652803</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1475.663568322143</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1186.246398285183</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>958.2568473871653</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>737.4642682436352</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,10 +6238,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6317,16 +6317,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703114</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>526.5658826424045</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>526.5658826424045</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>378.6527890600114</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>231.762841562101</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7031,13 +7031,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400676</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270406</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138374</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703073</v>
       </c>
     </row>
     <row r="38">
@@ -7165,61 +7165,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1723.711884091971</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622261</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343192</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>597.2570777219835</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>449.3439841395904</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>302.45403664168</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>302.45403664168</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
   </sheetData>
@@ -7978,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>207.0311336426203</v>
       </c>
       <c r="M2" t="n">
-        <v>134.5347393135082</v>
+        <v>348.4370131942333</v>
       </c>
       <c r="N2" t="n">
-        <v>338.9374781659714</v>
+        <v>338.9374781659683</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -7999,10 +7999,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,22 +8060,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660695</v>
+        <v>380.8926041660669</v>
       </c>
       <c r="N3" t="n">
-        <v>359.2821607945085</v>
+        <v>151.6583322777287</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>33.81943452254023</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>173.7639243740405</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>299.8549597144476</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906574</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>35.38972270186878</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>119.3759750973111</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906574</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>-9.640568469461882e-13</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>-7.366831715029562e-13</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>60.54304058923888</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>46.45968844823057</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>109.4223302771034</v>
+        <v>212.9445005827197</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>41.54258064659103</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>28.95742156328097</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>106.0841272570751</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194581</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>179.3544845744806</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>34.97276993489191</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>15.00954930701842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>65.75554125013275</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>875217.4876982014</v>
+        <v>875217.4876982009</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>852211.2220023476</v>
+        <v>852211.2220023477</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>852211.2220023476</v>
+        <v>852211.2220023477</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>832814.7603673674</v>
+        <v>832814.7603673673</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>832814.7603673675</v>
+        <v>832814.7603673674</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>832814.7603673674</v>
+        <v>832814.7603673673</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>832814.7603673675</v>
+        <v>832814.7603673673</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>832814.7603673674</v>
+        <v>832814.7603673672</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>832814.7603673674</v>
+        <v>832814.7603673673</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>832814.7603673674</v>
+        <v>832814.7603673673</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>832814.7603673673</v>
+        <v>832814.7603673674</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516057</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752548</v>
       </c>
       <c r="F2" t="n">
         <v>585181.2847752545</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752549</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752547</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752549</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752542</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753948</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898964</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457503</v>
+        <v>500888.8677457508</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151605</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252478</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695028</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695031</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695051</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699083</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.08936150963</v>
+        <v>93481.08936150958</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150963</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-593558.566435941</v>
+        <v>-593558.5664359438</v>
       </c>
       <c r="C6" t="n">
-        <v>199943.0792749519</v>
+        <v>199943.0792749556</v>
       </c>
       <c r="D6" t="n">
-        <v>372707.439064848</v>
+        <v>372707.4390648478</v>
       </c>
       <c r="E6" t="n">
-        <v>-23117.59332609826</v>
+        <v>-23464.97258045507</v>
       </c>
       <c r="F6" t="n">
-        <v>477771.2744196521</v>
+        <v>477423.8951652954</v>
       </c>
       <c r="G6" t="n">
-        <v>477771.2744196522</v>
+        <v>477423.8951652952</v>
       </c>
       <c r="H6" t="n">
-        <v>477771.2744196522</v>
+        <v>477423.895165295</v>
       </c>
       <c r="I6" t="n">
-        <v>477771.2744196524</v>
+        <v>477423.8951652955</v>
       </c>
       <c r="J6" t="n">
-        <v>308357.2575936044</v>
+        <v>308009.8783392477</v>
       </c>
       <c r="K6" t="n">
-        <v>477771.2744196525</v>
+        <v>477423.8951652955</v>
       </c>
       <c r="L6" t="n">
-        <v>477771.2744196521</v>
+        <v>477423.8951652953</v>
       </c>
       <c r="M6" t="n">
-        <v>346886.8175154169</v>
+        <v>346539.43826106</v>
       </c>
       <c r="N6" t="n">
-        <v>477771.2744196522</v>
+        <v>477423.8951652958</v>
       </c>
       <c r="O6" t="n">
-        <v>477771.2744196522</v>
+        <v>477423.8951652954</v>
       </c>
       <c r="P6" t="n">
-        <v>477771.2744196521</v>
+        <v>477423.895165295</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976067</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498449</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498449</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352467</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352467</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352467</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,13 +26804,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976067</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522382</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918288</v>
+        <v>428.2691096918293</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352467</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644016</v>
+        <v>525.210096564402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644016</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352467</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644016</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.31824897715984</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>91.08014074597264</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>99.43259155578617</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713016</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>119.5350263401174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>310.6732878669352</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767967</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>235.4558268823462</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27794,7 +27794,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>51.27287723598742</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>110.0866191216852</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
@@ -27906,22 +27906,22 @@
         <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>61.60470393447036</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>184.0840541726823</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28061,22 +28061,22 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
         <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>139.9048717665243</v>
+        <v>208.4672889202185</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30176,7 +30176,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090879</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625572</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115537</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066885</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611355</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014918</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682829</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658663</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485875</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775938</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330891</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325338</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282097</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494783</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072703</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674098</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743142</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307749</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859901</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.4910271261546</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605097</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911956</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240715</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257139</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433284</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028901</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526427</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.9638617996921</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993399</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364538</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651422</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351901</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777186</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855552</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711379</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600305</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932497</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840036</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184392</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351501</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311386</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519936</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567068</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965165</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189582</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265706</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
-        <v>38.68851486730742</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182605</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793979</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853283</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027923</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839336</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712727</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062754</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086972</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
-        <v>237.3018354237521</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179235</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837064</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612564</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H6" t="n">
-        <v>19.52107049255622</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586116</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041654</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315581</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470013</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274807</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157839</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841577</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,46 +31439,46 @@
         <v>1.694552507729228</v>
       </c>
       <c r="H7" t="n">
-        <v>15.06611229599261</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425717</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979553</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561278</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662511</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288118</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843065</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523075</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265706</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730742</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182605</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793979</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853283</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027923</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839336</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712727</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062754</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086972</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
-        <v>237.3018354237521</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179235</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837064</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612564</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
-        <v>19.52107049255622</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586116</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041654</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315581</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470013</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274807</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157839</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841577</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31676,46 +31676,46 @@
         <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>15.06611229599261</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425717</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979553</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561278</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662511</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288118</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843065</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523075</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,16 +31837,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31855,16 +31855,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>510.8679233250717</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>622.4211036182644</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L21" t="n">
-        <v>616.5397119226052</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>353.130074847795</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868572</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>353.130074847795</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33976,28 +33976,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34213,28 +34213,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520759</v>
+        <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>163.4293051161549</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315046</v>
+        <v>447.0541449741274</v>
       </c>
       <c r="M2" t="n">
-        <v>433.5959176545184</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N2" t="n">
-        <v>647.4981915352467</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269007</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223243</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185443</v>
+        <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138416</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932339</v>
+        <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
-        <v>122.6495881517956</v>
+        <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806355</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352467</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N3" t="n">
-        <v>647.4981915352467</v>
+        <v>439.8743630184692</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422579989</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>207.8890920515383</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.93752551686856</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882741</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.857665945255</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203466</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550902</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632322</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324789</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000436</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944423</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915742</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344173</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153411</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755196</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873427</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495859</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510059</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342477</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961994</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171363</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931442</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821471</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482248</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025569</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
-        <v>551.851654527598</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656115</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978366</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
-        <v>174.6066995266584</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912599</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597959</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701675</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.7336217364322</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915742</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344173</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153411</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755196</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873427</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495859</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510059</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342477</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961994</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171363</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>453.0121960057228</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821471</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482248</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>373.7015214044256</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131504</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656115</v>
+        <v>237.4056613270733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978366</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266584</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912599</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597959</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701675</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.7336217364322</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,16 +35503,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>379.5262112417385</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>483.8667238383903</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L21" t="n">
-        <v>477.985332142731</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648388</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010414</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2197267.082329742</v>
+        <v>2199027.612632527</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283193</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9708925.74191815</v>
+        <v>9708925.741918148</v>
       </c>
     </row>
     <row r="11">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>403.5577967645516</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>12.28773869504415</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>136.997534996265</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
@@ -819,19 +819,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>49.18288146242618</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>45.3801900513246</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>150.2028876639205</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>71.25708220532658</v>
+        <v>71.25708220532748</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>69.74536106025143</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>108.4980342304096</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5250233818693</v>
+        <v>226.9849106729468</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>144.9542020112904</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>78.05570941637252</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>17.24236646881863</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1818,10 +1818,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819433</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>73.23997380651851</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>73.23997380652447</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187854</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428172</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>244.6418937426531</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892427808</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>81.2657841108899</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>66.85274231757823</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>51.36569740310314</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>133.1319933510085</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>99.76859704213609</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>925.3036175845675</v>
+        <v>928.6553842281633</v>
       </c>
       <c r="C2" t="n">
-        <v>925.3036175845675</v>
+        <v>928.6553842281633</v>
       </c>
       <c r="D2" t="n">
-        <v>567.0379189778171</v>
+        <v>570.3896856214128</v>
       </c>
       <c r="E2" t="n">
-        <v>567.0379189778171</v>
+        <v>570.3896856214128</v>
       </c>
       <c r="F2" t="n">
         <v>159.4037808318053</v>
@@ -4336,19 +4336,19 @@
         <v>287.6947354520187</v>
       </c>
       <c r="L2" t="n">
-        <v>730.2783389764048</v>
+        <v>525.3175166702108</v>
       </c>
       <c r="M2" t="n">
-        <v>1371.301548596299</v>
+        <v>842.528986753226</v>
       </c>
       <c r="N2" t="n">
-        <v>2012.324758216193</v>
+        <v>1483.55219637312</v>
       </c>
       <c r="O2" t="n">
-        <v>2287.440977532827</v>
+        <v>1758.668415689755</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.74530482193</v>
+        <v>2277.553464068626</v>
       </c>
       <c r="Q2" t="n">
         <v>2589.992766140986</v>
@@ -4357,25 +4357,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016315</v>
+        <v>2451.61141765991</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.241780077746</v>
+        <v>2239.593546721341</v>
       </c>
       <c r="U2" t="n">
-        <v>1982.600918459332</v>
+        <v>1985.952685102928</v>
       </c>
       <c r="V2" t="n">
-        <v>1651.538031115761</v>
+        <v>1654.889797759357</v>
       </c>
       <c r="W2" t="n">
-        <v>1298.769375845647</v>
+        <v>1302.121142489243</v>
       </c>
       <c r="X2" t="n">
-        <v>925.3036175845675</v>
+        <v>928.6553842281633</v>
       </c>
       <c r="Y2" t="n">
-        <v>925.3036175845675</v>
+        <v>928.6553842281633</v>
       </c>
     </row>
     <row r="3">
@@ -4397,13 +4397,13 @@
         <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884144</v>
+        <v>320.7307563884145</v>
       </c>
       <c r="G3" t="n">
         <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093836</v>
+        <v>85.99742130093821</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
@@ -4412,19 +4412,19 @@
         <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>460.3590590626825</v>
+        <v>198.5384744202298</v>
       </c>
       <c r="L3" t="n">
-        <v>1037.081874165938</v>
+        <v>775.2612895234854</v>
       </c>
       <c r="M3" t="n">
-        <v>1678.105083785832</v>
+        <v>1157.279352600685</v>
       </c>
       <c r="N3" t="n">
-        <v>2113.580703174116</v>
+        <v>1798.302562220579</v>
       </c>
       <c r="O3" t="n">
-        <v>2352.385654925575</v>
+        <v>2037.107513972038</v>
       </c>
       <c r="P3" t="n">
         <v>2524.714615879285</v>
@@ -4467,16 +4467,16 @@
         <v>684.350106162791</v>
       </c>
       <c r="C4" t="n">
-        <v>684.350106162791</v>
+        <v>515.4139232348841</v>
       </c>
       <c r="D4" t="n">
-        <v>634.6704279179161</v>
+        <v>365.2972838225484</v>
       </c>
       <c r="E4" t="n">
-        <v>634.6704279179161</v>
+        <v>319.4587080131296</v>
       </c>
       <c r="F4" t="n">
-        <v>487.7804804200057</v>
+        <v>319.4587080131296</v>
       </c>
       <c r="G4" t="n">
         <v>319.4587080131296</v>
@@ -4488,7 +4488,7 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>54.03452733018416</v>
       </c>
       <c r="K4" t="n">
         <v>187.5436166159875</v>
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1319.75945534812</v>
+        <v>1319.759455348121</v>
       </c>
       <c r="C5" t="n">
-        <v>1319.75945534812</v>
+        <v>1319.759455348121</v>
       </c>
       <c r="D5" t="n">
-        <v>1319.75945534812</v>
+        <v>1319.759455348121</v>
       </c>
       <c r="E5" t="n">
         <v>1247.782604635669</v>
@@ -4561,58 +4561,58 @@
         <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719911</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104779</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
         <v>447.8319447135509</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507461</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.81558556073</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T5" t="n">
-        <v>2257.170226019557</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.590997961804</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V5" t="n">
-        <v>1672.528110618234</v>
+        <v>1672.528110618235</v>
       </c>
       <c r="W5" t="n">
-        <v>1319.75945534812</v>
+        <v>1319.759455348121</v>
       </c>
       <c r="X5" t="n">
-        <v>1319.75945534812</v>
+        <v>1319.759455348121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1319.75945534812</v>
+        <v>1319.759455348121</v>
       </c>
     </row>
     <row r="6">
@@ -4631,40 +4631,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096208</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>598.8031573431335</v>
+        <v>426.7768722128335</v>
       </c>
       <c r="L6" t="n">
-        <v>896.1151064594483</v>
+        <v>724.0888213291482</v>
       </c>
       <c r="M6" t="n">
-        <v>1262.420995951774</v>
+        <v>1090.394710821474</v>
       </c>
       <c r="N6" t="n">
-        <v>1652.830557277516</v>
+        <v>1480.804272147216</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>1880.457611898</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1269.291254958036</v>
+        <v>326.2821589709298</v>
       </c>
       <c r="C7" t="n">
-        <v>1100.35507203013</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="D7" t="n">
-        <v>1100.35507203013</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="E7" t="n">
-        <v>1100.35507203013</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="F7" t="n">
-        <v>1100.35507203013</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="G7" t="n">
-        <v>1100.35507203013</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="H7" t="n">
-        <v>1100.35507203013</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I7" t="n">
-        <v>994.8089513099264</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>1020.990176667912</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
-        <v>1193.850809199304</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>1470.579339609651</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>1772.739897818849</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>2073.15036973774</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
-        <v>2334.611767884206</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>2534.816480621917</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
-        <v>2589.992766140985</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>2589.992766140985</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>2589.992766140985</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>2367.058191682966</v>
+        <v>1424.049095695859</v>
       </c>
       <c r="U7" t="n">
-        <v>2077.940414693365</v>
+        <v>1134.931318706258</v>
       </c>
       <c r="V7" t="n">
-        <v>2077.940414693365</v>
+        <v>1134.931318706258</v>
       </c>
       <c r="W7" t="n">
-        <v>1788.523244656404</v>
+        <v>845.5141486692969</v>
       </c>
       <c r="X7" t="n">
-        <v>1560.533693758387</v>
+        <v>617.5245977712796</v>
       </c>
       <c r="Y7" t="n">
-        <v>1450.939719788276</v>
+        <v>396.7320186277494</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2056.974540206873</v>
+        <v>1870.570385955436</v>
       </c>
       <c r="C8" t="n">
-        <v>1688.012023266461</v>
+        <v>1501.607869015025</v>
       </c>
       <c r="D8" t="n">
-        <v>1329.746324659711</v>
+        <v>1143.342170408274</v>
       </c>
       <c r="E8" t="n">
-        <v>943.9580720614667</v>
+        <v>757.5539178100298</v>
       </c>
       <c r="F8" t="n">
-        <v>532.9721672718592</v>
+        <v>346.5680130204223</v>
       </c>
       <c r="G8" t="n">
         <v>117.2903254719912</v>
@@ -4804,25 +4804,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104791</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135507</v>
+        <v>447.8319447135523</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477381</v>
+        <v>804.6133007477401</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187504</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539973</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082063</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q8" t="n">
         <v>2568.493631507462</v>
@@ -4831,25 +4831,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T8" t="n">
-        <v>2443.574380270995</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.574380270995</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.574380270995</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="W8" t="n">
-        <v>2443.574380270995</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="X8" t="n">
-        <v>2443.574380270995</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="Y8" t="n">
-        <v>2443.574380270995</v>
+        <v>2257.170226019558</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>688.5974568552863</v>
+        <v>491.5015312480865</v>
       </c>
       <c r="L9" t="n">
-        <v>985.909405971601</v>
+        <v>788.8134803644011</v>
       </c>
       <c r="M9" t="n">
-        <v>1352.215295463926</v>
+        <v>1155.119369856727</v>
       </c>
       <c r="N9" t="n">
-        <v>1742.624856789669</v>
+        <v>1545.528931182469</v>
       </c>
       <c r="O9" t="n">
-        <v>2077.5535375052</v>
+        <v>1880.457611898</v>
       </c>
       <c r="P9" t="n">
-        <v>2327.030265370218</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4950,10 +4950,10 @@
         <v>620.859647846162</v>
       </c>
       <c r="F10" t="n">
-        <v>473.9697003482516</v>
+        <v>473.9697003482517</v>
       </c>
       <c r="G10" t="n">
-        <v>305.993511610141</v>
+        <v>305.9935116101411</v>
       </c>
       <c r="H10" t="n">
         <v>157.3459760430229</v>
@@ -5001,7 +5001,7 @@
         <v>1646.983670153878</v>
       </c>
       <c r="W10" t="n">
-        <v>1568.139519228249</v>
+        <v>1357.566500116917</v>
       </c>
       <c r="X10" t="n">
         <v>1340.149968330232</v>
@@ -5023,16 +5023,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5260,19 +5260,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,10 +5281,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5293,13 +5293,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5466,7 +5466,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
         <v>1746.193029533436</v>
@@ -5497,49 +5497,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>948.5505208511906</v>
+        <v>1022.530292372926</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232838</v>
+        <v>853.5941094450195</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5706,19 +5706,19 @@
         <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>2123.082773965825</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V19" t="n">
-        <v>1868.398285759938</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W19" t="n">
-        <v>1578.981115722978</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X19" t="n">
-        <v>1350.99156482496</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y19" t="n">
-        <v>1130.19898568143</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168596</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5758,46 +5758,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="21">
@@ -5819,31 +5819,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,13 +5980,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6056,16 +6056,16 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6080,7 +6080,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>555.8158034133954</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1730.34805652803</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1475.663568322143</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1186.246398285183</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>958.2568473871653</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>737.4642682436352</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,16 +6214,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6454,16 +6454,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6688,40 +6688,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6776,7 +6776,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6788,10 +6788,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6861,10 +6861,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,7 +7010,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
         <v>95.58405025273902</v>
@@ -7025,10 +7025,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400676</v>
+        <v>614.6217844681064</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121607</v>
+        <v>614.6217844681064</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121607</v>
+        <v>464.5051450557706</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121607</v>
+        <v>464.5051450557706</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121607</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270406</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487564</v>
+        <v>2297.830729215602</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510505</v>
+        <v>2078.229264238543</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854702</v>
+        <v>1789.154037582741</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648815</v>
+        <v>1534.469549376854</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611855</v>
+        <v>1245.052379339894</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138374</v>
+        <v>1017.062828441876</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703073</v>
+        <v>796.2702492983461</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7174,22 +7174,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,7 +7250,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7262,10 +7262,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797186</v>
@@ -7335,10 +7335,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.435061037252</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2159.833596060193</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1870.758369404391</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.073881198505</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1326.656711161544</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7487,7 +7487,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7499,10 +7499,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7572,10 +7572,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7645,31 +7645,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7724,7 +7724,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7736,10 +7736,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.2707707770319</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C46" t="n">
-        <v>634.334587849125</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D46" t="n">
-        <v>484.2179484367892</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E46" t="n">
-        <v>336.3048548543961</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>336.3048548543961</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7809,10 +7809,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7845,13 +7845,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.9192356072716</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -7984,10 +7984,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>207.0311336426203</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>348.4370131942333</v>
+        <v>21.35444800546691</v>
       </c>
       <c r="N2" t="n">
         <v>338.9374781659683</v>
@@ -7996,10 +7996,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>26.19461818159724</v>
@@ -8060,22 +8060,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660669</v>
+        <v>119.2712440219308</v>
       </c>
       <c r="N3" t="n">
-        <v>151.6583322777287</v>
+        <v>359.282160794506</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>173.7639243740405</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>65.3784434699524</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.1843750390658</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>191.4694788103614</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>119.3759750973111</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.1843750390658</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>-8.503700092245722e-13</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>75.37549921169385</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>212.9445005827197</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>41.54258064659103</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194222</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194581</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>99.7605018907547</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819418</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>114.1735436840664</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>114.1584408891657</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610404</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>65.75554125013275</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>832814.7603673674</v>
+        <v>832814.7603673673</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>832814.7603673672</v>
+        <v>832814.7603673674</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>832814.7603673673</v>
+        <v>832814.7603673672</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>832814.7603673673</v>
+        <v>832814.7603673675</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>595255.2831516055</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752548</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="F2" t="n">
         <v>585181.2847752545</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752549</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752548</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752549</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752543</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753987</v>
       </c>
       <c r="C3" t="n">
         <v>172764.3597898923</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457508</v>
+        <v>500888.8677457507</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260482</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
         <v>129066.754725248</v>
@@ -26432,13 +26432,13 @@
         <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6287.480531695083</v>
+      </c>
+      <c r="I4" t="n">
         <v>6287.480531695052</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6287.480531695052</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695051</v>
@@ -26447,19 +26447,19 @@
         <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695089</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695082</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
+        <v>6287.480531695077</v>
+      </c>
+      <c r="P4" t="n">
         <v>6287.480531695052</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6287.480531695051</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.08936150958</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
         <v>93481.0893615096</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-593558.5664359438</v>
+        <v>-593558.5664359439</v>
       </c>
       <c r="C6" t="n">
-        <v>199943.0792749556</v>
+        <v>199943.0792749554</v>
       </c>
       <c r="D6" t="n">
         <v>372707.4390648478</v>
       </c>
       <c r="E6" t="n">
-        <v>-23464.97258045507</v>
+        <v>-23152.33125153401</v>
       </c>
       <c r="F6" t="n">
-        <v>477423.8951652954</v>
+        <v>477736.5364942166</v>
       </c>
       <c r="G6" t="n">
-        <v>477423.8951652952</v>
+        <v>477736.5364942169</v>
       </c>
       <c r="H6" t="n">
-        <v>477423.895165295</v>
+        <v>477736.5364942168</v>
       </c>
       <c r="I6" t="n">
-        <v>477423.8951652955</v>
+        <v>477736.5364942167</v>
       </c>
       <c r="J6" t="n">
-        <v>308009.8783392477</v>
+        <v>308322.5196681683</v>
       </c>
       <c r="K6" t="n">
-        <v>477423.8951652955</v>
+        <v>477736.5364942166</v>
       </c>
       <c r="L6" t="n">
-        <v>477423.8951652953</v>
+        <v>477736.5364942171</v>
       </c>
       <c r="M6" t="n">
-        <v>346539.43826106</v>
+        <v>346852.0795899813</v>
       </c>
       <c r="N6" t="n">
-        <v>477423.8951652958</v>
+        <v>477736.5364942164</v>
       </c>
       <c r="O6" t="n">
-        <v>477423.8951652954</v>
+        <v>477736.5364942168</v>
       </c>
       <c r="P6" t="n">
-        <v>477423.895165295</v>
+        <v>477736.5364942165</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352471</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>3.31824897715984</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>3.318248977159016</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27539,19 +27539,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>99.43259155578617</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>101.0537725952446</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>310.6732878669352</v>
+        <v>310.6732878669343</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>110.0866191216859</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>110.0866191216852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>184.5401127089226</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>61.60470393447036</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>208.4672889202185</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28721,7 +28721,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-4.705700589478298e-12</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30176,7 +30176,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>-3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30228,7 +30228,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30380,7 +30380,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,22 +32314,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32554,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32800,10 +32800,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33499,22 +33499,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33736,22 +33736,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,22 +33973,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,22 +34210,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,22 +34447,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34704,22 +34704,22 @@
         <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>447.0541449741274</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>647.4981915352464</v>
+        <v>320.4156263464801</v>
       </c>
       <c r="N2" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O2" t="n">
         <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223266</v>
+        <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586414</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643756</v>
+        <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
         <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352464</v>
+        <v>385.8768313911104</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8743630184692</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O3" t="n">
         <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289998</v>
+        <v>492.5324261689369</v>
       </c>
       <c r="Q3" t="n">
         <v>65.9375255168697</v>
@@ -34947,7 +34947,7 @@
         <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873429</v>
       </c>
       <c r="O5" t="n">
         <v>406.4041207495856</v>
@@ -35017,7 +35017,7 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>362.3108833671845</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174896</v>
@@ -35029,13 +35029,13 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025566</v>
+        <v>403.690242172509</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131503</v>
+        <v>570.4594634530874</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K9" t="n">
-        <v>453.0121960057227</v>
+        <v>380.0164378035054</v>
       </c>
       <c r="L9" t="n">
         <v>300.3151001174896</v>
@@ -35269,10 +35269,10 @@
         <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131503</v>
+        <v>570.4594634530874</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.4056613270733</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36202,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36372,13 +36372,13 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36448,10 +36448,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924747</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396436</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010414</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6181808359224</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
